--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -10,6 +10,41 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" name="Temperatyre1" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre10" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre11" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre12" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre13" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre14" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre15" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre16" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre17" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre18" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre19" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre2" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre21" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre22" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre23" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre24" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre25" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre26" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre27" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre28" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre29" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre3" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre30" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre31" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre32" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre33" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre4" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre5" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre6" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre7" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre8" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Temperatyre9" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Timestamp" vbProcedure="false">#REF!</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t xml:space="preserve">Мастер по исследованию скважин </t>
   </si>
@@ -506,10 +541,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z8" activeCellId="0" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -558,10 +593,11 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="3"/>
+      <c r="AB2" s="2"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -605,17 +641,18 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="6" t="s">
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6" t="s">
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
-      <c r="AF5" s="7" t="s">
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -682,24 +719,27 @@
         <v>20</v>
       </c>
       <c r="Z6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AA6" s="8" t="s">
+      <c r="AB6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AB6" s="8" t="s">
+      <c r="AC6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="8" t="s">
+      <c r="AD6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="8" t="s">
+      <c r="AE6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AE6" s="8" t="s">
+      <c r="AF6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
@@ -759,25 +799,26 @@
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
-      <c r="Z7" s="10" t="s">
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" s="10" t="s">
+      <c r="AB7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AB7" s="10" t="s">
+      <c r="AC7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AC7" s="11" t="s">
+      <c r="AD7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AD7" s="10" t="s">
+      <c r="AE7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE7" s="10" t="s">
+      <c r="AF7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
@@ -854,16 +895,16 @@
         <v>55</v>
       </c>
       <c r="Z8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AA8" s="12" t="s">
+      <c r="AB8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AB8" s="12" t="s">
+      <c r="AC8" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="AC8" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="AD8" s="12" t="s">
         <v>46</v>
@@ -871,30 +912,33 @@
       <c r="AE8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AF8" s="7"/>
+      <c r="AF8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:AA2"/>
+    <mergeCell ref="E2:AB2"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:M5"/>
     <mergeCell ref="N5:R5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AF8"/>
+    <mergeCell ref="S5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AF5"/>
+    <mergeCell ref="AG5:AG8"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="P6:R6"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="W6:X6"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="P7:R7"/>
-    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="U7:Z7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -245,19 +245,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -543,13 +540,13 @@
   </sheetPr>
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z8" activeCellId="0" sqref="Z8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -944,8 +941,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t xml:space="preserve">Мастер по исследованию скважин </t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t xml:space="preserve">Греющий кабель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЭН</t>
   </si>
   <si>
     <t xml:space="preserve">Давление</t>
@@ -538,16 +541,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG5" activeCellId="0" sqref="AG5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -652,145 +654,149 @@
       <c r="AG5" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="AH5" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="G6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="K6" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V6" s="8"/>
       <c r="W6" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="AB6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AC6" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="AD6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE6" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF6" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
@@ -798,124 +804,126 @@
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
       <c r="AA7" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB7" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC7" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD7" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE7" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AF7" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="E8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="G8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="12" t="s">
+      <c r="K8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="13" t="s">
+      <c r="O8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="Q8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="15" t="s">
+      <c r="R8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="14" t="s">
+      <c r="T8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="W8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="S8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="U8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W8" s="14" t="s">
-        <v>48</v>
-      </c>
       <c r="X8" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y8" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AA8" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="AB8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AC8" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="AD8" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AE8" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF8" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="E2:AB2"/>
@@ -929,6 +937,7 @@
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AC5:AF5"/>
     <mergeCell ref="AG5:AG8"/>
+    <mergeCell ref="AH5:AH8"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="P6:R6"/>
     <mergeCell ref="U6:V6"/>

--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -123,15 +123,15 @@
     <t xml:space="preserve">Плотность</t>
   </si>
   <si>
+    <t xml:space="preserve">Т. Теплоносителя</t>
+  </si>
+  <si>
     <t xml:space="preserve">Т. жидкости</t>
   </si>
   <si>
     <t xml:space="preserve">Т. газа</t>
   </si>
   <si>
-    <t xml:space="preserve">Т. Теплоносителя</t>
-  </si>
-  <si>
     <t xml:space="preserve">РТ001</t>
   </si>
   <si>
@@ -186,13 +186,13 @@
     <t xml:space="preserve">PT008</t>
   </si>
   <si>
+    <t xml:space="preserve">TT007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT009</t>
+  </si>
+  <si>
     <t xml:space="preserve">TT008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT009</t>
   </si>
   <si>
     <t xml:space="preserve">МПа</t>
@@ -543,13 +543,14 @@
   </sheetPr>
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG5" activeCellId="0" sqref="AG5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="15.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
